--- a/Management/PRIORITIES.xlsx
+++ b/Management/PRIORITIES.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Repositories\GDC2017Project\Management\PRODUCTION\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Repositories\GDC2017Project\Management\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -639,7 +639,7 @@
   <dimension ref="B2:C25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="L30" sqref="L30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -695,18 +695,18 @@
       </c>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B8" s="1">
+      <c r="B8" s="6">
         <v>6</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="7" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B9" s="1">
+      <c r="B9" s="6">
         <v>7</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="7" t="s">
         <v>5</v>
       </c>
     </row>
@@ -727,10 +727,10 @@
       </c>
     </row>
     <row r="12" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B12" s="1">
+      <c r="B12" s="6">
         <v>10</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="7" t="s">
         <v>51</v>
       </c>
     </row>
@@ -740,10 +740,10 @@
       </c>
     </row>
     <row r="14" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B14" s="4">
+      <c r="B14" s="6">
         <v>11</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C14" s="7" t="s">
         <v>11</v>
       </c>
     </row>
@@ -756,10 +756,10 @@
       </c>
     </row>
     <row r="16" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B16" s="4">
+      <c r="B16" s="9">
         <v>13</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="C16" s="8" t="s">
         <v>52</v>
       </c>
     </row>
@@ -777,18 +777,18 @@
       </c>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B19" s="1">
+      <c r="B19" s="6">
         <v>15</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C19" s="7" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B20" s="1">
+      <c r="B20" s="6">
         <v>16</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="C20" s="7" t="s">
         <v>35</v>
       </c>
     </row>
@@ -798,34 +798,34 @@
       </c>
     </row>
     <row r="22" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B22" s="1">
+      <c r="B22" s="6">
         <v>17</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="C22" s="7" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="23" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B23" s="1">
+      <c r="B23" s="6">
         <v>18</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="C23" s="7" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="24" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B24" s="1">
+      <c r="B24" s="6">
         <v>19</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="C24" s="7" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="25" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B25" s="1">
+      <c r="B25" s="6">
         <v>20</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="C25" s="7" t="s">
         <v>40</v>
       </c>
     </row>

--- a/Management/PRIORITIES.xlsx
+++ b/Management/PRIORITIES.xlsx
@@ -189,7 +189,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -211,12 +211,6 @@
     </font>
     <font>
       <sz val="10"/>
-      <color rgb="FF9C0006"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
       <color rgb="FF9C5700"/>
       <name val="Tahoma"/>
       <family val="2"/>
@@ -228,17 +222,12 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -260,13 +249,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -277,29 +265,22 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="2" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="2" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="3" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="3" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="4">
-    <cellStyle name="Bad" xfId="1" builtinId="27"/>
-    <cellStyle name="Good" xfId="3" builtinId="26"/>
-    <cellStyle name="Neutral" xfId="2" builtinId="28"/>
+  <cellStyles count="3">
+    <cellStyle name="Good" xfId="2" builtinId="26"/>
+    <cellStyle name="Neutral" xfId="1" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -639,7 +620,7 @@
   <dimension ref="B2:C25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L30" sqref="L30"/>
+      <selection activeCell="H16" sqref="H16:H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -655,26 +636,26 @@
       </c>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B3" s="9">
+      <c r="B3" s="7">
         <v>1</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="6" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B4" s="9">
+      <c r="B4" s="7">
         <v>2</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="6" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B5" s="9">
+      <c r="B5" s="7">
         <v>3</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="6" t="s">
         <v>7</v>
       </c>
     </row>
@@ -687,50 +668,50 @@
       </c>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B7" s="6">
+      <c r="B7" s="7">
         <v>5</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="6" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B8" s="6">
+      <c r="B8" s="4">
         <v>6</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="5" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B9" s="6">
+      <c r="B9" s="4">
         <v>7</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="10" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B10" s="6">
+      <c r="B10" s="4">
         <v>8</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B11" s="6">
+      <c r="B11" s="4">
         <v>9</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="5" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="12" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B12" s="6">
+      <c r="B12" s="4">
         <v>10</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="C12" s="5" t="s">
         <v>51</v>
       </c>
     </row>
@@ -740,10 +721,10 @@
       </c>
     </row>
     <row r="14" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B14" s="6">
+      <c r="B14" s="4">
         <v>11</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="C14" s="5" t="s">
         <v>11</v>
       </c>
     </row>
@@ -756,10 +737,10 @@
       </c>
     </row>
     <row r="16" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B16" s="9">
+      <c r="B16" s="7">
         <v>13</v>
       </c>
-      <c r="C16" s="8" t="s">
+      <c r="C16" s="6" t="s">
         <v>52</v>
       </c>
     </row>
@@ -777,18 +758,18 @@
       </c>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B19" s="6">
+      <c r="B19" s="4">
         <v>15</v>
       </c>
-      <c r="C19" s="7" t="s">
+      <c r="C19" s="5" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B20" s="6">
+      <c r="B20" s="4">
         <v>16</v>
       </c>
-      <c r="C20" s="7" t="s">
+      <c r="C20" s="5" t="s">
         <v>35</v>
       </c>
     </row>
@@ -798,34 +779,34 @@
       </c>
     </row>
     <row r="22" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B22" s="6">
+      <c r="B22" s="4">
         <v>17</v>
       </c>
-      <c r="C22" s="7" t="s">
+      <c r="C22" s="5" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="23" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B23" s="6">
+      <c r="B23" s="4">
         <v>18</v>
       </c>
-      <c r="C23" s="7" t="s">
+      <c r="C23" s="5" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="24" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B24" s="6">
+      <c r="B24" s="4">
         <v>19</v>
       </c>
-      <c r="C24" s="7" t="s">
+      <c r="C24" s="5" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="25" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B25" s="6">
+      <c r="B25" s="4">
         <v>20</v>
       </c>
-      <c r="C25" s="7" t="s">
+      <c r="C25" s="5" t="s">
         <v>40</v>
       </c>
     </row>
